--- a/wwwroot/Files/DoneProjectsInfoEX.XLSX
+++ b/wwwroot/Files/DoneProjectsInfoEX.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebe12de473a99a2c/VisualStudio/C^N/ASP/PortfolioSite/wwwroot/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104880F99873485ADE58F0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52F49BC5-1BCA-4D5E-B87A-6E286C9C28FC}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC104880F99873485ADE58F0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8F97E46-1A5B-4C10-8E7F-3C5B5CFE9354}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>../Images/Projects/EquationCalculator.png</t>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UCj8v_5Ox7-KI5v_2PtMgQSw?view_as=subscriber</t>
-  </si>
-  <si>
     <t>https://github.com/ovrael/Equation-Calculator</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Program to calculate many operations with matrices! &lt;br /&gt; E.g. transposition, multiplication, determinant and trace or description of matrix.</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,24 +442,24 @@
     <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -473,16 +473,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -496,45 +496,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
